--- a/results/fit_with_increasing_windowsize.xlsx
+++ b/results/fit_with_increasing_windowsize.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9451083411690331</v>
+        <v>0.9620159331337256</v>
       </c>
       <c r="C2">
-        <v>0.7036948346444214</v>
+        <v>0.7259997016778982</v>
       </c>
       <c r="D2">
-        <v>0.6076051840273889</v>
+        <v>0.5854939244494655</v>
       </c>
       <c r="E2">
-        <v>0.2841096023218376</v>
+        <v>0.325543249002321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9103652549251695</v>
+        <v>0.945367549429584</v>
       </c>
       <c r="C3">
-        <v>0.7284733958466645</v>
+        <v>0.649892102227269</v>
       </c>
       <c r="D3">
-        <v>0.5631565864152485</v>
+        <v>0.564907370429254</v>
       </c>
       <c r="E3">
-        <v>0.2874851227040008</v>
+        <v>0.3011368590038922</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8882534812361321</v>
+        <v>0.91478878827354</v>
       </c>
       <c r="C4">
-        <v>0.7111853181470228</v>
+        <v>0.7021529545258348</v>
       </c>
       <c r="D4">
-        <v>0.5791439000539433</v>
+        <v>0.585201999229422</v>
       </c>
       <c r="E4">
-        <v>0.307437200770424</v>
+        <v>0.2716616567912823</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9217945421667991</v>
+        <v>0.9220677830346393</v>
       </c>
       <c r="C5">
-        <v>0.6866607363952484</v>
+        <v>0.6995136057874946</v>
       </c>
       <c r="D5">
-        <v>0.5889640304195203</v>
+        <v>0.6107163147796852</v>
       </c>
       <c r="E5">
-        <v>0.302263288676459</v>
+        <v>0.2802223835036172</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,781 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9647259531574661</v>
+        <v>0.9422432806137595</v>
       </c>
       <c r="C6">
-        <v>0.7320115959041777</v>
+        <v>0.7338131492605842</v>
       </c>
       <c r="D6">
-        <v>0.5624798933214183</v>
+        <v>0.5923085406129309</v>
       </c>
       <c r="E6">
-        <v>0.287894941875754</v>
+        <v>0.2830159072073672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.940890239000592</v>
+      </c>
+      <c r="C7">
+        <v>0.6728603832651936</v>
+      </c>
+      <c r="D7">
+        <v>0.6076187067647638</v>
+      </c>
+      <c r="E7">
+        <v>0.2668714041262413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.8740796713842997</v>
+      </c>
+      <c r="C8">
+        <v>0.6968929669191393</v>
+      </c>
+      <c r="D8">
+        <v>0.613997683341523</v>
+      </c>
+      <c r="E8">
+        <v>0.3349003122834378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.9027648691795666</v>
+      </c>
+      <c r="C9">
+        <v>0.6586198276687883</v>
+      </c>
+      <c r="D9">
+        <v>0.5735633720490574</v>
+      </c>
+      <c r="E9">
+        <v>0.2809979414085593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9223749164588468</v>
+      </c>
+      <c r="C10">
+        <v>0.6149052787063238</v>
+      </c>
+      <c r="D10">
+        <v>0.5613034822436636</v>
+      </c>
+      <c r="E10">
+        <v>0.2731044450729397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.9164544033500898</v>
+      </c>
+      <c r="C11">
+        <v>0.6478456051897377</v>
+      </c>
+      <c r="D11">
+        <v>0.5996352064521371</v>
+      </c>
+      <c r="E11">
+        <v>0.3032878836686734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.8909010530697007</v>
+      </c>
+      <c r="C12">
+        <v>0.6697287965139199</v>
+      </c>
+      <c r="D12">
+        <v>0.5707408343887054</v>
+      </c>
+      <c r="E12">
+        <v>0.2719175412283764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.9102243753097298</v>
+      </c>
+      <c r="C13">
+        <v>0.6302463499261164</v>
+      </c>
+      <c r="D13">
+        <v>0.5632424260805199</v>
+      </c>
+      <c r="E13">
+        <v>0.3052613866646831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.9780516507204533</v>
+      </c>
+      <c r="C14">
+        <v>0.6569788184557159</v>
+      </c>
+      <c r="D14">
+        <v>0.5663093601367458</v>
+      </c>
+      <c r="E14">
+        <v>0.2813852401223487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.8961760061075269</v>
+      </c>
+      <c r="C15">
+        <v>0.6667007537910211</v>
+      </c>
+      <c r="D15">
+        <v>0.5915621276972959</v>
+      </c>
+      <c r="E15">
+        <v>0.3052752130981928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.9239309006900598</v>
+      </c>
+      <c r="C16">
+        <v>0.6546290416935641</v>
+      </c>
+      <c r="D16">
+        <v>0.5428339055155482</v>
+      </c>
+      <c r="E16">
+        <v>0.3071355833098953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.8592247011695546</v>
+      </c>
+      <c r="C17">
+        <v>0.605939380101732</v>
+      </c>
+      <c r="D17">
+        <v>0.561447397959026</v>
+      </c>
+      <c r="E17">
+        <v>0.2904041847269304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.8945078892273207</v>
+      </c>
+      <c r="C18">
+        <v>0.6253128440134432</v>
+      </c>
+      <c r="D18">
+        <v>0.5685487335774887</v>
+      </c>
+      <c r="E18">
+        <v>0.2973678412593479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.8889207708299921</v>
+      </c>
+      <c r="C19">
+        <v>0.6429694002677505</v>
+      </c>
+      <c r="D19">
+        <v>0.5232354167017214</v>
+      </c>
+      <c r="E19">
+        <v>0.3461733067621931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.9173648926823814</v>
+      </c>
+      <c r="C20">
+        <v>0.630482783690552</v>
+      </c>
+      <c r="D20">
+        <v>0.5106933014732162</v>
+      </c>
+      <c r="E20">
+        <v>0.3329093078255089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.8840156884618239</v>
+      </c>
+      <c r="C21">
+        <v>0.5921542075954203</v>
+      </c>
+      <c r="D21">
+        <v>0.515715259508312</v>
+      </c>
+      <c r="E21">
+        <v>0.3145977798116424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.8725933394713351</v>
+      </c>
+      <c r="C22">
+        <v>0.6567800957504368</v>
+      </c>
+      <c r="D22">
+        <v>0.5490915224021176</v>
+      </c>
+      <c r="E22">
+        <v>0.3502701070205389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.9158015241158035</v>
+      </c>
+      <c r="C23">
+        <v>0.6642365681737795</v>
+      </c>
+      <c r="D23">
+        <v>0.5756352754693156</v>
+      </c>
+      <c r="E23">
+        <v>0.309714855547549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8687715688866371</v>
+      </c>
+      <c r="C24">
+        <v>0.596025219811555</v>
+      </c>
+      <c r="D24">
+        <v>0.5638006190903294</v>
+      </c>
+      <c r="E24">
+        <v>0.3424703085203436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8731755147492898</v>
+      </c>
+      <c r="C25">
+        <v>0.6456866509546766</v>
+      </c>
+      <c r="D25">
+        <v>0.5838198901415492</v>
+      </c>
+      <c r="E25">
+        <v>0.2960012916233796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.9333095380903955</v>
+      </c>
+      <c r="C26">
+        <v>0.6529423507962778</v>
+      </c>
+      <c r="D26">
+        <v>0.6021197669138376</v>
+      </c>
+      <c r="E26">
+        <v>0.3397982409534311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.8539978453122175</v>
+      </c>
+      <c r="C27">
+        <v>0.6169180266786414</v>
+      </c>
+      <c r="D27">
+        <v>0.508181646825361</v>
+      </c>
+      <c r="E27">
+        <v>0.3394983990258259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.9266895727148883</v>
+      </c>
+      <c r="C28">
+        <v>0.5787004342677067</v>
+      </c>
+      <c r="D28">
+        <v>0.5354519149931797</v>
+      </c>
+      <c r="E28">
+        <v>0.3896834023906748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9103579076488539</v>
+      </c>
+      <c r="C29">
+        <v>0.6311557783485504</v>
+      </c>
+      <c r="D29">
+        <v>0.5411066201866077</v>
+      </c>
+      <c r="E29">
+        <v>0.3479694694960852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.8520908006072784</v>
+      </c>
+      <c r="C30">
+        <v>0.6362655431032607</v>
+      </c>
+      <c r="D30">
+        <v>0.5278931572001443</v>
+      </c>
+      <c r="E30">
+        <v>0.3705878071630174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9029733516452408</v>
+      </c>
+      <c r="C31">
+        <v>0.6126834846415324</v>
+      </c>
+      <c r="D31">
+        <v>0.5988716572358983</v>
+      </c>
+      <c r="E31">
+        <v>0.3297331709832073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.9132807831887486</v>
+      </c>
+      <c r="C32">
+        <v>0.6679962870110062</v>
+      </c>
+      <c r="D32">
+        <v>0.5364987352936192</v>
+      </c>
+      <c r="E32">
+        <v>0.3206737270878328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.8435855012506227</v>
+      </c>
+      <c r="C33">
+        <v>0.5847341723577071</v>
+      </c>
+      <c r="D33">
+        <v>0.5275338184951295</v>
+      </c>
+      <c r="E33">
+        <v>0.3197326072235651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.9606847553156616</v>
+      </c>
+      <c r="C34">
+        <v>0.6692510318996745</v>
+      </c>
+      <c r="D34">
+        <v>0.5244971769448705</v>
+      </c>
+      <c r="E34">
+        <v>0.3884083067426183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.865667526700679</v>
+      </c>
+      <c r="C35">
+        <v>0.608241047983184</v>
+      </c>
+      <c r="D35">
+        <v>0.5660472588985398</v>
+      </c>
+      <c r="E35">
+        <v>0.3219183462046862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.9164884150025147</v>
+      </c>
+      <c r="C36">
+        <v>0.6543424531274439</v>
+      </c>
+      <c r="D36">
+        <v>0.5992763057871334</v>
+      </c>
+      <c r="E36">
+        <v>0.3530704588468541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.9156106303461546</v>
+      </c>
+      <c r="C37">
+        <v>0.6391675296824377</v>
+      </c>
+      <c r="D37">
+        <v>0.5633217685097189</v>
+      </c>
+      <c r="E37">
+        <v>0.3275158117210085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.8519049782451529</v>
+      </c>
+      <c r="C38">
+        <v>0.6867656161063803</v>
+      </c>
+      <c r="D38">
+        <v>0.5139962905774909</v>
+      </c>
+      <c r="E38">
+        <v>0.3324137301155496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.8814656567631651</v>
+      </c>
+      <c r="C39">
+        <v>0.6727578229235383</v>
+      </c>
+      <c r="D39">
+        <v>0.5452362215549822</v>
+      </c>
+      <c r="E39">
+        <v>0.3396251446961608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.8930965254408383</v>
+      </c>
+      <c r="C40">
+        <v>0.6542140441192422</v>
+      </c>
+      <c r="D40">
+        <v>0.539724461851259</v>
+      </c>
+      <c r="E40">
+        <v>0.3382075240534254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.9210478981475456</v>
+      </c>
+      <c r="C41">
+        <v>0.7230699896800175</v>
+      </c>
+      <c r="D41">
+        <v>0.57731855252696</v>
+      </c>
+      <c r="E41">
+        <v>0.3595701672408516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.8572844090456855</v>
+      </c>
+      <c r="C42">
+        <v>0.6862564374714997</v>
+      </c>
+      <c r="D42">
+        <v>0.5805156797885516</v>
+      </c>
+      <c r="E42">
+        <v>0.3370375991139251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.9013119687171827</v>
+      </c>
+      <c r="C43">
+        <v>0.6857569108663648</v>
+      </c>
+      <c r="D43">
+        <v>0.527900301857497</v>
+      </c>
+      <c r="E43">
+        <v>0.368757722354603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.8631721742786832</v>
+      </c>
+      <c r="C44">
+        <v>0.6868969491981975</v>
+      </c>
+      <c r="D44">
+        <v>0.4968419410997981</v>
+      </c>
+      <c r="E44">
+        <v>0.3689160590451062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.8512768441707752</v>
+      </c>
+      <c r="C45">
+        <v>0.7176802586788475</v>
+      </c>
+      <c r="D45">
+        <v>0.4986157190797373</v>
+      </c>
+      <c r="E45">
+        <v>0.3738783968690447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.8775942390467378</v>
+      </c>
+      <c r="C46">
+        <v>0.6996557599355244</v>
+      </c>
+      <c r="D46">
+        <v>0.5293009157611051</v>
+      </c>
+      <c r="E46">
+        <v>0.3372475442595833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.9217060694704239</v>
+      </c>
+      <c r="C47">
+        <v>0.6956162344016225</v>
+      </c>
+      <c r="D47">
+        <v>0.5572158075037423</v>
+      </c>
+      <c r="E47">
+        <v>0.3666419212611834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.8436163225953722</v>
+      </c>
+      <c r="C48">
+        <v>0.6845749289077635</v>
+      </c>
+      <c r="D48">
+        <v>0.505029138264619</v>
+      </c>
+      <c r="E48">
+        <v>0.3715312738140077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.877575508984936</v>
+      </c>
+      <c r="C49">
+        <v>0.6585388829484445</v>
+      </c>
+      <c r="D49">
+        <v>0.5283043515343768</v>
+      </c>
+      <c r="E49">
+        <v>0.3570802944849948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.8648464695400946</v>
+      </c>
+      <c r="C50">
+        <v>0.6660641840019061</v>
+      </c>
+      <c r="D50">
+        <v>0.5237627971184228</v>
+      </c>
+      <c r="E50">
+        <v>0.3575059336890606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.9539487459545386</v>
+      </c>
+      <c r="C51">
+        <v>0.7012496283328888</v>
+      </c>
+      <c r="D51">
+        <v>0.5120113023008718</v>
+      </c>
+      <c r="E51">
+        <v>0.3886288220275155</v>
       </c>
     </row>
   </sheetData>

--- a/results/fit_with_increasing_windowsize.xlsx
+++ b/results/fit_with_increasing_windowsize.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>windowsize</t>
+  </si>
   <si>
     <t>mae_d1m1</t>
   </si>
@@ -26,6 +29,18 @@
   </si>
   <si>
     <t>mae_d2m2</t>
+  </si>
+  <si>
+    <t>nse_d1m1</t>
+  </si>
+  <si>
+    <t>nse_d1m2</t>
+  </si>
+  <si>
+    <t>nse_d2m1</t>
+  </si>
+  <si>
+    <t>nse_d2m2</t>
   </si>
 </sst>
 </file>
@@ -383,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,855 +417,3220 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9620159331337256</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>0.7259997016778982</v>
+        <v>6.340037523690198</v>
       </c>
       <c r="D2">
-        <v>0.5854939244494655</v>
+        <v>1.016477699279785</v>
       </c>
       <c r="E2">
-        <v>0.325543249002321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.03038549395071</v>
+      </c>
+      <c r="F2">
+        <v>0.4197165532244577</v>
+      </c>
+      <c r="G2">
+        <v>-1.546528962246868</v>
+      </c>
+      <c r="H2">
+        <v>0.9114585584098569</v>
+      </c>
+      <c r="I2">
+        <v>-1.005500292127818</v>
+      </c>
+      <c r="J2">
+        <v>0.9866330141013616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.945367549429584</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>0.649892102227269</v>
+        <v>6.858805567026138</v>
       </c>
       <c r="D3">
-        <v>0.564907370429254</v>
+        <v>1.183895928642966</v>
       </c>
       <c r="E3">
-        <v>0.3011368590038922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8.428323292840611</v>
+      </c>
+      <c r="F3">
+        <v>0.4412050465223464</v>
+      </c>
+      <c r="G3">
+        <v>-4.18678195817511</v>
+      </c>
+      <c r="H3">
+        <v>0.760355591481673</v>
+      </c>
+      <c r="I3">
+        <v>-2.827755916440748</v>
+      </c>
+      <c r="J3">
+        <v>0.9770696987134692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.91478878827354</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>0.7021529545258348</v>
+        <v>4.010158243821218</v>
       </c>
       <c r="D4">
-        <v>0.585201999229422</v>
+        <v>0.8412476132466242</v>
       </c>
       <c r="E4">
-        <v>0.2716616567912823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.38883970552339</v>
+      </c>
+      <c r="F4">
+        <v>0.2339367165359167</v>
+      </c>
+      <c r="G4">
+        <v>-0.7983742796777191</v>
+      </c>
+      <c r="H4">
+        <v>0.8804268269222735</v>
+      </c>
+      <c r="I4">
+        <v>0.3417420997231254</v>
+      </c>
+      <c r="J4">
+        <v>0.9920472092487991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9220677830346393</v>
+        <v>170</v>
       </c>
       <c r="C5">
-        <v>0.6995136057874946</v>
+        <v>2.364001049856345</v>
       </c>
       <c r="D5">
-        <v>0.6107163147796852</v>
+        <v>0.6554639529387156</v>
       </c>
       <c r="E5">
-        <v>0.2802223835036172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.105843143701553</v>
+      </c>
+      <c r="F5">
+        <v>0.1954827960232894</v>
+      </c>
+      <c r="G5">
+        <v>0.6012850048790465</v>
+      </c>
+      <c r="H5">
+        <v>0.9605707316069554</v>
+      </c>
+      <c r="I5">
+        <v>0.7192356249592494</v>
+      </c>
+      <c r="J5">
+        <v>0.9962873517278927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9422432806137595</v>
+        <v>190</v>
       </c>
       <c r="C6">
-        <v>0.7338131492605842</v>
+        <v>1.916917653657934</v>
       </c>
       <c r="D6">
-        <v>0.5923085406129309</v>
+        <v>0.5324675893213818</v>
       </c>
       <c r="E6">
-        <v>0.2830159072073672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.22919963049538</v>
+      </c>
+      <c r="F6">
+        <v>0.1992604699993835</v>
+      </c>
+      <c r="G6">
+        <v>0.7115423351473497</v>
+      </c>
+      <c r="H6">
+        <v>0.9698023972867983</v>
+      </c>
+      <c r="I6">
+        <v>0.8654538327320258</v>
+      </c>
+      <c r="J6">
+        <v>0.9930704133127106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.940890239000592</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>0.6728603832651936</v>
+        <v>1.301125069467939</v>
       </c>
       <c r="D7">
-        <v>0.6076187067647638</v>
+        <v>0.4731427778573217</v>
       </c>
       <c r="E7">
-        <v>0.2668714041262413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.312823480776952</v>
+      </c>
+      <c r="F7">
+        <v>0.1509103855152467</v>
+      </c>
+      <c r="G7">
+        <v>0.8054853832693226</v>
+      </c>
+      <c r="H7">
+        <v>0.9562200228143795</v>
+      </c>
+      <c r="I7">
+        <v>0.7847088358982756</v>
+      </c>
+      <c r="J7">
+        <v>0.9961044523262398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8740796713842997</v>
+        <v>230</v>
       </c>
       <c r="C8">
-        <v>0.6968929669191393</v>
+        <v>0.7959552388988612</v>
       </c>
       <c r="D8">
-        <v>0.613997683341523</v>
+        <v>0.323725941329751</v>
       </c>
       <c r="E8">
-        <v>0.3349003122834378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.014853971316489</v>
+      </c>
+      <c r="F8">
+        <v>0.1346750485552565</v>
+      </c>
+      <c r="G8">
+        <v>0.8459291303441026</v>
+      </c>
+      <c r="H8">
+        <v>0.9745708379611047</v>
+      </c>
+      <c r="I8">
+        <v>0.8009988020852596</v>
+      </c>
+      <c r="J8">
+        <v>0.9934506638038118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9027648691795666</v>
+        <v>250</v>
       </c>
       <c r="C9">
-        <v>0.6586198276687883</v>
+        <v>0.7087781156004286</v>
       </c>
       <c r="D9">
-        <v>0.5735633720490574</v>
+        <v>0.2589757427812108</v>
       </c>
       <c r="E9">
-        <v>0.2809979414085593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.6573555621058957</v>
+      </c>
+      <c r="F9">
+        <v>0.1650983728231823</v>
+      </c>
+      <c r="G9">
+        <v>0.7892108038776942</v>
+      </c>
+      <c r="H9">
+        <v>0.9751398367973682</v>
+      </c>
+      <c r="I9">
+        <v>0.8965810939258283</v>
+      </c>
+      <c r="J9">
+        <v>0.9765535959667947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9223749164588468</v>
+        <v>270</v>
       </c>
       <c r="C10">
-        <v>0.6149052787063238</v>
+        <v>0.848731311406754</v>
       </c>
       <c r="D10">
-        <v>0.5613034822436636</v>
+        <v>0.3698167811479419</v>
       </c>
       <c r="E10">
-        <v>0.2731044450729397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.6914014360503847</v>
+      </c>
+      <c r="F10">
+        <v>0.2170847381369356</v>
+      </c>
+      <c r="G10">
+        <v>0.489797558165038</v>
+      </c>
+      <c r="H10">
+        <v>0.874763677269215</v>
+      </c>
+      <c r="I10">
+        <v>0.8127071768661643</v>
+      </c>
+      <c r="J10">
+        <v>0.9505683839560948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9164544033500898</v>
+        <v>290</v>
       </c>
       <c r="C11">
-        <v>0.6478456051897377</v>
+        <v>0.803429687227019</v>
       </c>
       <c r="D11">
-        <v>0.5996352064521371</v>
+        <v>0.57139128396598</v>
       </c>
       <c r="E11">
-        <v>0.3032878836686734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.5990054185620883</v>
+      </c>
+      <c r="F11">
+        <v>0.3664835939638094</v>
+      </c>
+      <c r="G11">
+        <v>0.9107115917438005</v>
+      </c>
+      <c r="H11">
+        <v>0.9092242641014913</v>
+      </c>
+      <c r="I11">
+        <v>0.9625748917408231</v>
+      </c>
+      <c r="J11">
+        <v>0.9363234790140733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8909010530697007</v>
+        <v>310</v>
       </c>
       <c r="C12">
-        <v>0.6697287965139199</v>
+        <v>0.957584828382101</v>
       </c>
       <c r="D12">
-        <v>0.5707408343887054</v>
+        <v>0.6336776307196323</v>
       </c>
       <c r="E12">
-        <v>0.2719175412283764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.5732285333939919</v>
+      </c>
+      <c r="F12">
+        <v>0.2853535021686397</v>
+      </c>
+      <c r="G12">
+        <v>0.9265019307689577</v>
+      </c>
+      <c r="H12">
+        <v>0.9478091332633015</v>
+      </c>
+      <c r="I12">
+        <v>0.9760053218939728</v>
+      </c>
+      <c r="J12">
+        <v>0.9902970200271447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9102243753097298</v>
+        <v>330</v>
       </c>
       <c r="C13">
-        <v>0.6302463499261164</v>
+        <v>1.030126343416651</v>
       </c>
       <c r="D13">
-        <v>0.5632424260805199</v>
+        <v>0.7516869492801808</v>
       </c>
       <c r="E13">
-        <v>0.3052613866646831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.6228341085993711</v>
+      </c>
+      <c r="F13">
+        <v>0.3167721551215307</v>
+      </c>
+      <c r="G13">
+        <v>0.9158690451338163</v>
+      </c>
+      <c r="H13">
+        <v>0.9393391976669347</v>
+      </c>
+      <c r="I13">
+        <v>0.9726913298183641</v>
+      </c>
+      <c r="J13">
+        <v>0.9876070446269484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9780516507204533</v>
+        <v>350</v>
       </c>
       <c r="C14">
-        <v>0.6569788184557159</v>
+        <v>1.028889367767525</v>
       </c>
       <c r="D14">
-        <v>0.5663093601367458</v>
+        <v>0.6610753874889942</v>
       </c>
       <c r="E14">
-        <v>0.2813852401223487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.5474350949891585</v>
+      </c>
+      <c r="F14">
+        <v>0.3201933066673717</v>
+      </c>
+      <c r="G14">
+        <v>0.9075457261065727</v>
+      </c>
+      <c r="H14">
+        <v>0.9564238778087748</v>
+      </c>
+      <c r="I14">
+        <v>0.9736392172410764</v>
+      </c>
+      <c r="J14">
+        <v>0.9855113514700635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8961760061075269</v>
+        <v>370</v>
       </c>
       <c r="C15">
-        <v>0.6667007537910211</v>
+        <v>0.9869211314871376</v>
       </c>
       <c r="D15">
-        <v>0.5915621276972959</v>
+        <v>0.6533142070895327</v>
       </c>
       <c r="E15">
-        <v>0.3052752130981928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.538742598956823</v>
+      </c>
+      <c r="F15">
+        <v>0.2963684063007718</v>
+      </c>
+      <c r="G15">
+        <v>0.9050829759660178</v>
+      </c>
+      <c r="H15">
+        <v>0.9502922076922948</v>
+      </c>
+      <c r="I15">
+        <v>0.9734467671698965</v>
+      </c>
+      <c r="J15">
+        <v>0.9905159855375125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9239309006900598</v>
+        <v>390</v>
       </c>
       <c r="C16">
-        <v>0.6546290416935641</v>
+        <v>0.9625165539604081</v>
       </c>
       <c r="D16">
-        <v>0.5428339055155482</v>
+        <v>0.651090082779723</v>
       </c>
       <c r="E16">
-        <v>0.3071355833098953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.5530321327694538</v>
+      </c>
+      <c r="F16">
+        <v>0.293424584038567</v>
+      </c>
+      <c r="G16">
+        <v>0.9039547575416383</v>
+      </c>
+      <c r="H16">
+        <v>0.9507134015018881</v>
+      </c>
+      <c r="I16">
+        <v>0.9719897959648529</v>
+      </c>
+      <c r="J16">
+        <v>0.9895762438140636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8592247011695546</v>
+        <v>410</v>
       </c>
       <c r="C17">
-        <v>0.605939380101732</v>
+        <v>0.8620946933889521</v>
       </c>
       <c r="D17">
-        <v>0.561447397959026</v>
+        <v>0.5460197911479863</v>
       </c>
       <c r="E17">
-        <v>0.2904041847269304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.5299524113593846</v>
+      </c>
+      <c r="F17">
+        <v>0.2820506621483629</v>
+      </c>
+      <c r="G17">
+        <v>0.9217328403088096</v>
+      </c>
+      <c r="H17">
+        <v>0.967032093177244</v>
+      </c>
+      <c r="I17">
+        <v>0.9739562838855619</v>
+      </c>
+      <c r="J17">
+        <v>0.9918206533965014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8945078892273207</v>
+        <v>430</v>
       </c>
       <c r="C18">
-        <v>0.6253128440134432</v>
+        <v>0.8479892435806597</v>
       </c>
       <c r="D18">
-        <v>0.5685487335774887</v>
+        <v>0.6294777403369091</v>
       </c>
       <c r="E18">
-        <v>0.2973678412593479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.5130915097215089</v>
+      </c>
+      <c r="F18">
+        <v>0.3300693975506271</v>
+      </c>
+      <c r="G18">
+        <v>0.9262236131239234</v>
+      </c>
+      <c r="H18">
+        <v>0.9461743759629357</v>
+      </c>
+      <c r="I18">
+        <v>0.9720461400451874</v>
+      </c>
+      <c r="J18">
+        <v>0.9862314339445287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8889207708299921</v>
+        <v>450</v>
       </c>
       <c r="C19">
-        <v>0.6429694002677505</v>
+        <v>0.9196489165365263</v>
       </c>
       <c r="D19">
-        <v>0.5232354167017214</v>
+        <v>0.5725544101508117</v>
       </c>
       <c r="E19">
-        <v>0.3461733067621931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.4919769836733454</v>
+      </c>
+      <c r="F19">
+        <v>0.3274124163359696</v>
+      </c>
+      <c r="G19">
+        <v>0.9099518087680583</v>
+      </c>
+      <c r="H19">
+        <v>0.9635811765315416</v>
+      </c>
+      <c r="I19">
+        <v>0.9738629066391923</v>
+      </c>
+      <c r="J19">
+        <v>0.9893044564380078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9173648926823814</v>
+        <v>470</v>
       </c>
       <c r="C20">
-        <v>0.630482783690552</v>
+        <v>1.027779081611724</v>
       </c>
       <c r="D20">
-        <v>0.5106933014732162</v>
+        <v>0.5891299642015413</v>
       </c>
       <c r="E20">
-        <v>0.3329093078255089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.5009207227167983</v>
+      </c>
+      <c r="F20">
+        <v>0.3623663123063743</v>
+      </c>
+      <c r="G20">
+        <v>0.900432287022553</v>
+      </c>
+      <c r="H20">
+        <v>0.9704630640606002</v>
+      </c>
+      <c r="I20">
+        <v>0.9793322950034815</v>
+      </c>
+      <c r="J20">
+        <v>0.9896578336077489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8840156884618239</v>
+        <v>490</v>
       </c>
       <c r="C21">
-        <v>0.5921542075954203</v>
+        <v>1.072757116713636</v>
       </c>
       <c r="D21">
-        <v>0.515715259508312</v>
+        <v>0.6496188257013784</v>
       </c>
       <c r="E21">
-        <v>0.3145977798116424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.5074493015498083</v>
+      </c>
+      <c r="F21">
+        <v>0.3385421596923249</v>
+      </c>
+      <c r="G21">
+        <v>0.9063178536759725</v>
+      </c>
+      <c r="H21">
+        <v>0.9689757925647356</v>
+      </c>
+      <c r="I21">
+        <v>0.9807858536760475</v>
+      </c>
+      <c r="J21">
+        <v>0.9914429544368216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8725933394713351</v>
+        <v>510</v>
       </c>
       <c r="C22">
-        <v>0.6567800957504368</v>
+        <v>0.9011226206490808</v>
       </c>
       <c r="D22">
-        <v>0.5490915224021176</v>
+        <v>0.7013312632225948</v>
       </c>
       <c r="E22">
-        <v>0.3502701070205389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.6455200956294276</v>
+      </c>
+      <c r="F22">
+        <v>0.3157789020437975</v>
+      </c>
+      <c r="G22">
+        <v>0.9362583925999995</v>
+      </c>
+      <c r="H22">
+        <v>0.962232094985867</v>
+      </c>
+      <c r="I22">
+        <v>0.969399313958044</v>
+      </c>
+      <c r="J22">
+        <v>0.9915100845252421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9158015241158035</v>
+        <v>530</v>
       </c>
       <c r="C23">
-        <v>0.6642365681737795</v>
+        <v>1.014025583047105</v>
       </c>
       <c r="D23">
-        <v>0.5756352754693156</v>
+        <v>0.7059168187183127</v>
       </c>
       <c r="E23">
-        <v>0.309714855547549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.5443454480927219</v>
+      </c>
+      <c r="F23">
+        <v>0.3293303426212685</v>
+      </c>
+      <c r="G23">
+        <v>0.9127986470649059</v>
+      </c>
+      <c r="H23">
+        <v>0.9616160729190029</v>
+      </c>
+      <c r="I23">
+        <v>0.9779198446095577</v>
+      </c>
+      <c r="J23">
+        <v>0.9922747763799133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8687715688866371</v>
+        <v>550</v>
       </c>
       <c r="C24">
-        <v>0.596025219811555</v>
+        <v>0.8289767465463995</v>
       </c>
       <c r="D24">
-        <v>0.5638006190903294</v>
+        <v>0.5925707701710807</v>
       </c>
       <c r="E24">
-        <v>0.3424703085203436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.5601909535564482</v>
+      </c>
+      <c r="F24">
+        <v>0.2827966888189175</v>
+      </c>
+      <c r="G24">
+        <v>0.9438295090440538</v>
+      </c>
+      <c r="H24">
+        <v>0.9717624059714158</v>
+      </c>
+      <c r="I24">
+        <v>0.9724007326033973</v>
+      </c>
+      <c r="J24">
+        <v>0.9943725337810321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8731755147492898</v>
+        <v>570</v>
       </c>
       <c r="C25">
-        <v>0.6456866509546766</v>
+        <v>0.8559809711391241</v>
       </c>
       <c r="D25">
-        <v>0.5838198901415492</v>
+        <v>0.5721895275129818</v>
       </c>
       <c r="E25">
-        <v>0.2960012916233796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.529768353020095</v>
+      </c>
+      <c r="F25">
+        <v>0.2790483712884174</v>
+      </c>
+      <c r="G25">
+        <v>0.9268622395860178</v>
+      </c>
+      <c r="H25">
+        <v>0.9624128066899763</v>
+      </c>
+      <c r="I25">
+        <v>0.9721895185665993</v>
+      </c>
+      <c r="J25">
+        <v>0.9908134124508384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9333095380903955</v>
+        <v>590</v>
       </c>
       <c r="C26">
-        <v>0.6529423507962778</v>
+        <v>0.7194168690638094</v>
       </c>
       <c r="D26">
-        <v>0.6021197669138376</v>
+        <v>0.5573268355068375</v>
       </c>
       <c r="E26">
-        <v>0.3397982409534311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.4432628822315223</v>
+      </c>
+      <c r="F26">
+        <v>0.2490708267056432</v>
+      </c>
+      <c r="G26">
+        <v>0.9394948723296477</v>
+      </c>
+      <c r="H26">
+        <v>0.958383714563246</v>
+      </c>
+      <c r="I26">
+        <v>0.9806310182964932</v>
+      </c>
+      <c r="J26">
+        <v>0.993071695892578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8539978453122175</v>
+        <v>610</v>
       </c>
       <c r="C27">
-        <v>0.6169180266786414</v>
+        <v>0.6617953228594829</v>
       </c>
       <c r="D27">
-        <v>0.508181646825361</v>
+        <v>0.5330544954139265</v>
       </c>
       <c r="E27">
-        <v>0.3394983990258259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.4049781419360473</v>
+      </c>
+      <c r="F27">
+        <v>0.2651189446728677</v>
+      </c>
+      <c r="G27">
+        <v>0.9472786469446295</v>
+      </c>
+      <c r="H27">
+        <v>0.956564812167179</v>
+      </c>
+      <c r="I27">
+        <v>0.983268335228102</v>
+      </c>
+      <c r="J27">
+        <v>0.990509191117192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9266895727148883</v>
+        <v>630</v>
       </c>
       <c r="C28">
-        <v>0.5787004342677067</v>
+        <v>0.6802449705615364</v>
       </c>
       <c r="D28">
-        <v>0.5354519149931797</v>
+        <v>0.543475680671904</v>
       </c>
       <c r="E28">
-        <v>0.3896834023906748</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.3959058086600032</v>
+      </c>
+      <c r="F28">
+        <v>0.2537507279988256</v>
+      </c>
+      <c r="G28">
+        <v>0.9380201487296368</v>
+      </c>
+      <c r="H28">
+        <v>0.9385977781920299</v>
+      </c>
+      <c r="I28">
+        <v>0.9852077369113188</v>
+      </c>
+      <c r="J28">
+        <v>0.9915731745220846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9103579076488539</v>
+        <v>650</v>
       </c>
       <c r="C29">
-        <v>0.6311557783485504</v>
+        <v>0.716567217595754</v>
       </c>
       <c r="D29">
-        <v>0.5411066201866077</v>
+        <v>0.6418074625564473</v>
       </c>
       <c r="E29">
-        <v>0.3479694694960852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.4290890827019595</v>
+      </c>
+      <c r="F29">
+        <v>0.3235327283933108</v>
+      </c>
+      <c r="G29">
+        <v>0.9465539464585317</v>
+      </c>
+      <c r="H29">
+        <v>0.9157972476021927</v>
+      </c>
+      <c r="I29">
+        <v>0.9841703014295511</v>
+      </c>
+      <c r="J29">
+        <v>0.986765383957108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8520908006072784</v>
+        <v>670</v>
       </c>
       <c r="C30">
-        <v>0.6362655431032607</v>
+        <v>0.7635970034175453</v>
       </c>
       <c r="D30">
-        <v>0.5278931572001443</v>
+        <v>0.5139544174102607</v>
       </c>
       <c r="E30">
-        <v>0.3705878071630174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.4032774289101362</v>
+      </c>
+      <c r="F30">
+        <v>0.3523740577823841</v>
+      </c>
+      <c r="G30">
+        <v>0.9502164090920073</v>
+      </c>
+      <c r="H30">
+        <v>0.9761770328081522</v>
+      </c>
+      <c r="I30">
+        <v>0.9877916463124998</v>
+      </c>
+      <c r="J30">
+        <v>0.9903276059722235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9029733516452408</v>
+        <v>690</v>
       </c>
       <c r="C31">
-        <v>0.6126834846415324</v>
+        <v>0.8702735128285223</v>
       </c>
       <c r="D31">
-        <v>0.5988716572358983</v>
+        <v>0.5885292922832155</v>
       </c>
       <c r="E31">
-        <v>0.3297331709832073</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.4553126213039313</v>
+      </c>
+      <c r="F31">
+        <v>0.2766139472141139</v>
+      </c>
+      <c r="G31">
+        <v>0.9397957992074442</v>
+      </c>
+      <c r="H31">
+        <v>0.9681474405404952</v>
+      </c>
+      <c r="I31">
+        <v>0.9860295617234343</v>
+      </c>
+      <c r="J31">
+        <v>0.9943867441918988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9132807831887486</v>
+        <v>710</v>
       </c>
       <c r="C32">
-        <v>0.6679962870110062</v>
+        <v>0.8785746949008381</v>
       </c>
       <c r="D32">
-        <v>0.5364987352936192</v>
+        <v>0.5873893543347906</v>
       </c>
       <c r="E32">
-        <v>0.3206737270878328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.4064155035490251</v>
+      </c>
+      <c r="F32">
+        <v>0.29544101903458</v>
+      </c>
+      <c r="G32">
+        <v>0.9376407566965149</v>
+      </c>
+      <c r="H32">
+        <v>0.9702152217637945</v>
+      </c>
+      <c r="I32">
+        <v>0.9886855374205661</v>
+      </c>
+      <c r="J32">
+        <v>0.993881071269397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8435855012506227</v>
+        <v>730</v>
       </c>
       <c r="C33">
-        <v>0.5847341723577071</v>
+        <v>0.8820856328060902</v>
       </c>
       <c r="D33">
-        <v>0.5275338184951295</v>
+        <v>0.5990608348229374</v>
       </c>
       <c r="E33">
-        <v>0.3197326072235651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.4719002727533257</v>
+      </c>
+      <c r="F33">
+        <v>0.2675399049650877</v>
+      </c>
+      <c r="G33">
+        <v>0.9356668081389896</v>
+      </c>
+      <c r="H33">
+        <v>0.9691170911568123</v>
+      </c>
+      <c r="I33">
+        <v>0.9848269232608418</v>
+      </c>
+      <c r="J33">
+        <v>0.994627820853186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9606847553156616</v>
+        <v>750</v>
       </c>
       <c r="C34">
-        <v>0.6692510318996745</v>
+        <v>0.8456313345304359</v>
       </c>
       <c r="D34">
-        <v>0.5244971769448705</v>
+        <v>0.5616312403506064</v>
       </c>
       <c r="E34">
-        <v>0.3884083067426183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.4528714834149825</v>
+      </c>
+      <c r="F34">
+        <v>0.2667537951035654</v>
+      </c>
+      <c r="G34">
+        <v>0.9383176790386173</v>
+      </c>
+      <c r="H34">
+        <v>0.9710401438163931</v>
+      </c>
+      <c r="I34">
+        <v>0.9858898972159513</v>
+      </c>
+      <c r="J34">
+        <v>0.9949082055724722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.865667526700679</v>
+        <v>770</v>
       </c>
       <c r="C35">
-        <v>0.608241047983184</v>
+        <v>0.7929701120630528</v>
       </c>
       <c r="D35">
-        <v>0.5660472588985398</v>
+        <v>0.5408485311451678</v>
       </c>
       <c r="E35">
-        <v>0.3219183462046862</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.3667197901513971</v>
+      </c>
+      <c r="F35">
+        <v>0.2765813747633326</v>
+      </c>
+      <c r="G35">
+        <v>0.9448106507400638</v>
+      </c>
+      <c r="H35">
+        <v>0.9725625343151443</v>
+      </c>
+      <c r="I35">
+        <v>0.9894129883473841</v>
+      </c>
+      <c r="J35">
+        <v>0.9943197599472022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9164884150025147</v>
+        <v>790</v>
       </c>
       <c r="C36">
-        <v>0.6543424531274439</v>
+        <v>0.823397632988061</v>
       </c>
       <c r="D36">
-        <v>0.5992763057871334</v>
+        <v>0.5590156329179473</v>
       </c>
       <c r="E36">
-        <v>0.3530704588468541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.413628082337446</v>
+      </c>
+      <c r="F36">
+        <v>0.2402786166098819</v>
+      </c>
+      <c r="G36">
+        <v>0.9358729028076956</v>
+      </c>
+      <c r="H36">
+        <v>0.969526336215966</v>
+      </c>
+      <c r="I36">
+        <v>0.9872741632893511</v>
+      </c>
+      <c r="J36">
+        <v>0.9954807284083665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9156106303461546</v>
+        <v>810</v>
       </c>
       <c r="C37">
-        <v>0.6391675296824377</v>
+        <v>0.8211136042919079</v>
       </c>
       <c r="D37">
-        <v>0.5633217685097189</v>
+        <v>0.6174374012496393</v>
       </c>
       <c r="E37">
-        <v>0.3275158117210085</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.3851020322836821</v>
+      </c>
+      <c r="F37">
+        <v>0.2318261748533976</v>
+      </c>
+      <c r="G37">
+        <v>0.937832290799858</v>
+      </c>
+      <c r="H37">
+        <v>0.9630892055850009</v>
+      </c>
+      <c r="I37">
+        <v>0.9889612872207646</v>
+      </c>
+      <c r="J37">
+        <v>0.9956735406973621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8519049782451529</v>
+        <v>830</v>
       </c>
       <c r="C38">
-        <v>0.6867656161063803</v>
+        <v>0.9535736834789615</v>
       </c>
       <c r="D38">
-        <v>0.5139962905774909</v>
+        <v>0.6791079302746688</v>
       </c>
       <c r="E38">
-        <v>0.3324137301155496</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.4156257875501049</v>
+      </c>
+      <c r="F38">
+        <v>0.2703801402821921</v>
+      </c>
+      <c r="G38">
+        <v>0.9267572076280153</v>
+      </c>
+      <c r="H38">
+        <v>0.9594492666296107</v>
+      </c>
+      <c r="I38">
+        <v>0.9875716867368052</v>
+      </c>
+      <c r="J38">
+        <v>0.993780195809442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8814656567631651</v>
+        <v>850</v>
       </c>
       <c r="C39">
-        <v>0.6727578229235383</v>
+        <v>0.9532872073260888</v>
       </c>
       <c r="D39">
-        <v>0.5452362215549822</v>
+        <v>0.7079516699998247</v>
       </c>
       <c r="E39">
-        <v>0.3396251446961608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.4819221598276917</v>
+      </c>
+      <c r="F39">
+        <v>0.303682719726145</v>
+      </c>
+      <c r="G39">
+        <v>0.9301249903413359</v>
+      </c>
+      <c r="H39">
+        <v>0.9616748735684609</v>
+      </c>
+      <c r="I39">
+        <v>0.9829164256397194</v>
+      </c>
+      <c r="J39">
+        <v>0.9926868294665819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8930965254408383</v>
+        <v>870</v>
       </c>
       <c r="C40">
-        <v>0.6542140441192422</v>
+        <v>1.014281338908929</v>
       </c>
       <c r="D40">
-        <v>0.539724461851259</v>
+        <v>0.7549401257527335</v>
       </c>
       <c r="E40">
-        <v>0.3382075240534254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.4556059408462948</v>
+      </c>
+      <c r="F40">
+        <v>0.2565093428216231</v>
+      </c>
+      <c r="G40">
+        <v>0.9257866611527394</v>
+      </c>
+      <c r="H40">
+        <v>0.9579712953083256</v>
+      </c>
+      <c r="I40">
+        <v>0.9855340426063786</v>
+      </c>
+      <c r="J40">
+        <v>0.994803050985136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9210478981475456</v>
+        <v>890</v>
       </c>
       <c r="C41">
-        <v>0.7230699896800175</v>
+        <v>0.9767575692152605</v>
       </c>
       <c r="D41">
-        <v>0.57731855252696</v>
+        <v>0.7611740690382497</v>
       </c>
       <c r="E41">
-        <v>0.3595701672408516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.4059728979287286</v>
+      </c>
+      <c r="F41">
+        <v>0.249292430506983</v>
+      </c>
+      <c r="G41">
+        <v>0.9295563947389931</v>
+      </c>
+      <c r="H41">
+        <v>0.9567774141096134</v>
+      </c>
+      <c r="I41">
+        <v>0.9879397870416078</v>
+      </c>
+      <c r="J41">
+        <v>0.9951157666642374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8572844090456855</v>
+        <v>910</v>
       </c>
       <c r="C42">
-        <v>0.6862564374714997</v>
+        <v>0.9218592475051729</v>
       </c>
       <c r="D42">
-        <v>0.5805156797885516</v>
+        <v>0.7612430297188315</v>
       </c>
       <c r="E42">
-        <v>0.3370375991139251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.4003091365120993</v>
+      </c>
+      <c r="F42">
+        <v>0.25858681032784</v>
+      </c>
+      <c r="G42">
+        <v>0.9333773523146401</v>
+      </c>
+      <c r="H42">
+        <v>0.9539941721970159</v>
+      </c>
+      <c r="I42">
+        <v>0.9879741711930148</v>
+      </c>
+      <c r="J42">
+        <v>0.9948061367817023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9013119687171827</v>
+        <v>930</v>
       </c>
       <c r="C43">
-        <v>0.6857569108663648</v>
+        <v>0.9121135601416169</v>
       </c>
       <c r="D43">
-        <v>0.527900301857497</v>
+        <v>0.7366362398910428</v>
       </c>
       <c r="E43">
-        <v>0.368757722354603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.372056667521477</v>
+      </c>
+      <c r="F43">
+        <v>0.2471049331746558</v>
+      </c>
+      <c r="G43">
+        <v>0.932111552340972</v>
+      </c>
+      <c r="H43">
+        <v>0.9538408245126266</v>
+      </c>
+      <c r="I43">
+        <v>0.988488866539441</v>
+      </c>
+      <c r="J43">
+        <v>0.9949364682853157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8631721742786832</v>
+        <v>950</v>
       </c>
       <c r="C44">
-        <v>0.6868969491981975</v>
+        <v>0.8426185644309345</v>
       </c>
       <c r="D44">
-        <v>0.4968419410997981</v>
+        <v>0.6855675024389519</v>
       </c>
       <c r="E44">
-        <v>0.3689160590451062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.3938812756185953</v>
+      </c>
+      <c r="F44">
+        <v>0.2572610678197879</v>
+      </c>
+      <c r="G44">
+        <v>0.9386588200620294</v>
+      </c>
+      <c r="H44">
+        <v>0.9567973207822323</v>
+      </c>
+      <c r="I44">
+        <v>0.9874934916765078</v>
+      </c>
+      <c r="J44">
+        <v>0.9944317345032992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8512768441707752</v>
+        <v>970</v>
       </c>
       <c r="C45">
-        <v>0.7176802586788475</v>
+        <v>0.8518675221806197</v>
       </c>
       <c r="D45">
-        <v>0.4986157190797373</v>
+        <v>0.6836758288232805</v>
       </c>
       <c r="E45">
-        <v>0.3738783968690447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.3511140971981835</v>
+      </c>
+      <c r="F45">
+        <v>0.2226258500869398</v>
+      </c>
+      <c r="G45">
+        <v>0.9334901003512618</v>
+      </c>
+      <c r="H45">
+        <v>0.9540590915421573</v>
+      </c>
+      <c r="I45">
+        <v>0.9884960729803201</v>
+      </c>
+      <c r="J45">
+        <v>0.9953505855060463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8775942390467378</v>
+        <v>990</v>
       </c>
       <c r="C46">
-        <v>0.6996557599355244</v>
+        <v>0.76795424157864</v>
       </c>
       <c r="D46">
-        <v>0.5293009157611051</v>
+        <v>0.6583220843684179</v>
       </c>
       <c r="E46">
-        <v>0.3372475442595833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.3734347715764607</v>
+      </c>
+      <c r="F46">
+        <v>0.2436621729899065</v>
+      </c>
+      <c r="G46">
+        <v>0.9432754314334977</v>
+      </c>
+      <c r="H46">
+        <v>0.956931401753236</v>
+      </c>
+      <c r="I46">
+        <v>0.9868686956624085</v>
+      </c>
+      <c r="J46">
+        <v>0.9941973504105537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9217060694704239</v>
+        <v>1010</v>
       </c>
       <c r="C47">
-        <v>0.6956162344016225</v>
+        <v>0.7881206043957817</v>
       </c>
       <c r="D47">
-        <v>0.5572158075037423</v>
+        <v>0.7187909451794501</v>
       </c>
       <c r="E47">
-        <v>0.3666419212611834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.4136989280106818</v>
+      </c>
+      <c r="F47">
+        <v>0.2616938743990613</v>
+      </c>
+      <c r="G47">
+        <v>0.9430971174884692</v>
+      </c>
+      <c r="H47">
+        <v>0.9484569943980279</v>
+      </c>
+      <c r="I47">
+        <v>0.9837548880319067</v>
+      </c>
+      <c r="J47">
+        <v>0.9932924231690181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8436163225953722</v>
+        <v>1030</v>
       </c>
       <c r="C48">
-        <v>0.6845749289077635</v>
+        <v>0.8167979542152624</v>
       </c>
       <c r="D48">
-        <v>0.505029138264619</v>
+        <v>0.703111175426079</v>
       </c>
       <c r="E48">
-        <v>0.3715312738140077</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.362905104674294</v>
+      </c>
+      <c r="F48">
+        <v>0.2708695190539526</v>
+      </c>
+      <c r="G48">
+        <v>0.9463251796621798</v>
+      </c>
+      <c r="H48">
+        <v>0.956801237192509</v>
+      </c>
+      <c r="I48">
+        <v>0.9880830444940166</v>
+      </c>
+      <c r="J48">
+        <v>0.9939494033629634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.877575508984936</v>
+        <v>1050</v>
       </c>
       <c r="C49">
-        <v>0.6585388829484445</v>
+        <v>0.8007261167008665</v>
       </c>
       <c r="D49">
-        <v>0.5283043515343768</v>
+        <v>0.6907832664834986</v>
       </c>
       <c r="E49">
-        <v>0.3570802944849948</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.41122585193336</v>
+      </c>
+      <c r="F49">
+        <v>0.2711560367884225</v>
+      </c>
+      <c r="G49">
+        <v>0.9500804540582456</v>
+      </c>
+      <c r="H49">
+        <v>0.961307609117941</v>
+      </c>
+      <c r="I49">
+        <v>0.9860697821219588</v>
+      </c>
+      <c r="J49">
+        <v>0.9941356937357261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8648464695400946</v>
+        <v>1070</v>
       </c>
       <c r="C50">
-        <v>0.6660641840019061</v>
+        <v>0.8225902070510867</v>
       </c>
       <c r="D50">
-        <v>0.5237627971184228</v>
+        <v>0.7150992498062108</v>
       </c>
       <c r="E50">
-        <v>0.3575059336890606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.3887476952884933</v>
+      </c>
+      <c r="F50">
+        <v>0.2634079239583142</v>
+      </c>
+      <c r="G50">
+        <v>0.9472481408721896</v>
+      </c>
+      <c r="H50">
+        <v>0.9576041692339951</v>
+      </c>
+      <c r="I50">
+        <v>0.9876391534262581</v>
+      </c>
+      <c r="J50">
+        <v>0.9943768445894585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9539487459545386</v>
+        <v>1090</v>
       </c>
       <c r="C51">
-        <v>0.7012496283328888</v>
+        <v>0.8206828720409372</v>
       </c>
       <c r="D51">
-        <v>0.5120113023008718</v>
+        <v>0.6973935997539644</v>
       </c>
       <c r="E51">
-        <v>0.3886288220275155</v>
+        <v>0.3809079699193956</v>
+      </c>
+      <c r="F51">
+        <v>0.2751541910754902</v>
+      </c>
+      <c r="G51">
+        <v>0.9467020283532099</v>
+      </c>
+      <c r="H51">
+        <v>0.9600149883309015</v>
+      </c>
+      <c r="I51">
+        <v>0.9878842183741462</v>
+      </c>
+      <c r="J51">
+        <v>0.9940824766251206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1110</v>
+      </c>
+      <c r="C52">
+        <v>0.8720963721667253</v>
+      </c>
+      <c r="D52">
+        <v>0.7456269043704085</v>
+      </c>
+      <c r="E52">
+        <v>0.3720078793107457</v>
+      </c>
+      <c r="F52">
+        <v>0.2591208901792651</v>
+      </c>
+      <c r="G52">
+        <v>0.9366581856307136</v>
+      </c>
+      <c r="H52">
+        <v>0.9537810485132411</v>
+      </c>
+      <c r="I52">
+        <v>0.987780873366448</v>
+      </c>
+      <c r="J52">
+        <v>0.9942822558894528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1130</v>
+      </c>
+      <c r="C53">
+        <v>0.906622456952191</v>
+      </c>
+      <c r="D53">
+        <v>0.6984494095434108</v>
+      </c>
+      <c r="E53">
+        <v>0.3835676319559728</v>
+      </c>
+      <c r="F53">
+        <v>0.2627929387972868</v>
+      </c>
+      <c r="G53">
+        <v>0.9310203814705058</v>
+      </c>
+      <c r="H53">
+        <v>0.958963211670701</v>
+      </c>
+      <c r="I53">
+        <v>0.9866359116312224</v>
+      </c>
+      <c r="J53">
+        <v>0.9943639055834579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1150</v>
+      </c>
+      <c r="C54">
+        <v>0.8249644933150571</v>
+      </c>
+      <c r="D54">
+        <v>0.6604814558979784</v>
+      </c>
+      <c r="E54">
+        <v>0.3741252020954008</v>
+      </c>
+      <c r="F54">
+        <v>0.2776540885986585</v>
+      </c>
+      <c r="G54">
+        <v>0.9423204638889759</v>
+      </c>
+      <c r="H54">
+        <v>0.9629201984488009</v>
+      </c>
+      <c r="I54">
+        <v>0.9872792597129243</v>
+      </c>
+      <c r="J54">
+        <v>0.993665101631286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1170</v>
+      </c>
+      <c r="C55">
+        <v>0.822092416047807</v>
+      </c>
+      <c r="D55">
+        <v>0.69471910610382</v>
+      </c>
+      <c r="E55">
+        <v>0.3341640156557146</v>
+      </c>
+      <c r="F55">
+        <v>0.2919774561622534</v>
+      </c>
+      <c r="G55">
+        <v>0.9442021310605961</v>
+      </c>
+      <c r="H55">
+        <v>0.9578755242218719</v>
+      </c>
+      <c r="I55">
+        <v>0.9891883838988701</v>
+      </c>
+      <c r="J55">
+        <v>0.9924705822218032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1190</v>
+      </c>
+      <c r="C56">
+        <v>0.8781833109728451</v>
+      </c>
+      <c r="D56">
+        <v>0.7801653612307153</v>
+      </c>
+      <c r="E56">
+        <v>0.4329595580297317</v>
+      </c>
+      <c r="F56">
+        <v>0.2998902620987133</v>
+      </c>
+      <c r="G56">
+        <v>0.9336556475030588</v>
+      </c>
+      <c r="H56">
+        <v>0.9471038464958781</v>
+      </c>
+      <c r="I56">
+        <v>0.9823110798856749</v>
+      </c>
+      <c r="J56">
+        <v>0.9924683534485942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1210</v>
+      </c>
+      <c r="C57">
+        <v>0.7907222784790328</v>
+      </c>
+      <c r="D57">
+        <v>0.7161489910135406</v>
+      </c>
+      <c r="E57">
+        <v>0.4027772205491099</v>
+      </c>
+      <c r="F57">
+        <v>0.2836626170297151</v>
+      </c>
+      <c r="G57">
+        <v>0.9513314882117754</v>
+      </c>
+      <c r="H57">
+        <v>0.9597642542741198</v>
+      </c>
+      <c r="I57">
+        <v>0.9865334664001594</v>
+      </c>
+      <c r="J57">
+        <v>0.9935772974584923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1230</v>
+      </c>
+      <c r="C58">
+        <v>0.9115633454694884</v>
+      </c>
+      <c r="D58">
+        <v>0.7207386557533875</v>
+      </c>
+      <c r="E58">
+        <v>0.4093296338265525</v>
+      </c>
+      <c r="F58">
+        <v>0.2898592959292289</v>
+      </c>
+      <c r="G58">
+        <v>0.9381238860120845</v>
+      </c>
+      <c r="H58">
+        <v>0.9616339783449031</v>
+      </c>
+      <c r="I58">
+        <v>0.9859391123306971</v>
+      </c>
+      <c r="J58">
+        <v>0.9935401296584336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1250</v>
+      </c>
+      <c r="C59">
+        <v>0.8996906573838002</v>
+      </c>
+      <c r="D59">
+        <v>0.7199709519193455</v>
+      </c>
+      <c r="E59">
+        <v>0.3447958101753413</v>
+      </c>
+      <c r="F59">
+        <v>0.294117311192842</v>
+      </c>
+      <c r="G59">
+        <v>0.9393709214571997</v>
+      </c>
+      <c r="H59">
+        <v>0.9597874688332106</v>
+      </c>
+      <c r="I59">
+        <v>0.9897485529835436</v>
+      </c>
+      <c r="J59">
+        <v>0.9931556021384417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1270</v>
+      </c>
+      <c r="C60">
+        <v>0.8448690881408005</v>
+      </c>
+      <c r="D60">
+        <v>0.7552895320770889</v>
+      </c>
+      <c r="E60">
+        <v>0.3577076646246621</v>
+      </c>
+      <c r="F60">
+        <v>0.2816586125327694</v>
+      </c>
+      <c r="G60">
+        <v>0.9458969389139898</v>
+      </c>
+      <c r="H60">
+        <v>0.95402153537603</v>
+      </c>
+      <c r="I60">
+        <v>0.9896056821951167</v>
+      </c>
+      <c r="J60">
+        <v>0.9933052929134606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1290</v>
+      </c>
+      <c r="C61">
+        <v>0.802594804561763</v>
+      </c>
+      <c r="D61">
+        <v>0.6879190169472071</v>
+      </c>
+      <c r="E61">
+        <v>0.3246939135753361</v>
+      </c>
+      <c r="F61">
+        <v>0.2890087347557836</v>
+      </c>
+      <c r="G61">
+        <v>0.9460608697165869</v>
+      </c>
+      <c r="H61">
+        <v>0.9600424167677769</v>
+      </c>
+      <c r="I61">
+        <v>0.990990258487668</v>
+      </c>
+      <c r="J61">
+        <v>0.9930721917818179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1310</v>
+      </c>
+      <c r="C62">
+        <v>0.7787851496711518</v>
+      </c>
+      <c r="D62">
+        <v>0.6626197376351284</v>
+      </c>
+      <c r="E62">
+        <v>0.3439918184309138</v>
+      </c>
+      <c r="F62">
+        <v>0.2861224836044424</v>
+      </c>
+      <c r="G62">
+        <v>0.9452371259614225</v>
+      </c>
+      <c r="H62">
+        <v>0.9598159348181381</v>
+      </c>
+      <c r="I62">
+        <v>0.9882219571918489</v>
+      </c>
+      <c r="J62">
+        <v>0.9927467766296154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1330</v>
+      </c>
+      <c r="C63">
+        <v>0.7375945262930833</v>
+      </c>
+      <c r="D63">
+        <v>0.6373561807157373</v>
+      </c>
+      <c r="E63">
+        <v>0.3552764069427023</v>
+      </c>
+      <c r="F63">
+        <v>0.2650012441459227</v>
+      </c>
+      <c r="G63">
+        <v>0.9490657957794488</v>
+      </c>
+      <c r="H63">
+        <v>0.9619976316880473</v>
+      </c>
+      <c r="I63">
+        <v>0.9879959708072124</v>
+      </c>
+      <c r="J63">
+        <v>0.9931760577769193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1350</v>
+      </c>
+      <c r="C64">
+        <v>0.7877172632203122</v>
+      </c>
+      <c r="D64">
+        <v>0.567483633217871</v>
+      </c>
+      <c r="E64">
+        <v>0.3733384813541937</v>
+      </c>
+      <c r="F64">
+        <v>0.2999098032259048</v>
+      </c>
+      <c r="G64">
+        <v>0.9422176240920613</v>
+      </c>
+      <c r="H64">
+        <v>0.9690483942323832</v>
+      </c>
+      <c r="I64">
+        <v>0.9860857141784297</v>
+      </c>
+      <c r="J64">
+        <v>0.9914355785614548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1370</v>
+      </c>
+      <c r="C65">
+        <v>0.8022404833674706</v>
+      </c>
+      <c r="D65">
+        <v>0.5888444920122899</v>
+      </c>
+      <c r="E65">
+        <v>0.3736632793813349</v>
+      </c>
+      <c r="F65">
+        <v>0.3039553037133128</v>
+      </c>
+      <c r="G65">
+        <v>0.9410712709530173</v>
+      </c>
+      <c r="H65">
+        <v>0.9675197905858184</v>
+      </c>
+      <c r="I65">
+        <v>0.9865437355073903</v>
+      </c>
+      <c r="J65">
+        <v>0.9908686041286812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1390</v>
+      </c>
+      <c r="C66">
+        <v>0.8456270668349724</v>
+      </c>
+      <c r="D66">
+        <v>0.643489982110659</v>
+      </c>
+      <c r="E66">
+        <v>0.3723559590720998</v>
+      </c>
+      <c r="F66">
+        <v>0.3171266198489368</v>
+      </c>
+      <c r="G66">
+        <v>0.93730842781149</v>
+      </c>
+      <c r="H66">
+        <v>0.9632152759747464</v>
+      </c>
+      <c r="I66">
+        <v>0.986891328239756</v>
+      </c>
+      <c r="J66">
+        <v>0.9905905553184511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1410</v>
+      </c>
+      <c r="C67">
+        <v>0.8752314166575937</v>
+      </c>
+      <c r="D67">
+        <v>0.6589750413447886</v>
+      </c>
+      <c r="E67">
+        <v>0.3983012977720987</v>
+      </c>
+      <c r="F67">
+        <v>0.3339875978831556</v>
+      </c>
+      <c r="G67">
+        <v>0.9353717679757025</v>
+      </c>
+      <c r="H67">
+        <v>0.963057536970223</v>
+      </c>
+      <c r="I67">
+        <v>0.9864383133800739</v>
+      </c>
+      <c r="J67">
+        <v>0.9900606260098204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1430</v>
+      </c>
+      <c r="C68">
+        <v>0.8969121852772085</v>
+      </c>
+      <c r="D68">
+        <v>0.6651895541313323</v>
+      </c>
+      <c r="E68">
+        <v>0.3708852642911102</v>
+      </c>
+      <c r="F68">
+        <v>0.3225050018641541</v>
+      </c>
+      <c r="G68">
+        <v>0.9322475240813578</v>
+      </c>
+      <c r="H68">
+        <v>0.9630955416838122</v>
+      </c>
+      <c r="I68">
+        <v>0.9870889868040461</v>
+      </c>
+      <c r="J68">
+        <v>0.9909067294651525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1450</v>
+      </c>
+      <c r="C69">
+        <v>0.9126028560561785</v>
+      </c>
+      <c r="D69">
+        <v>0.6529143145004405</v>
+      </c>
+      <c r="E69">
+        <v>0.3503509752509971</v>
+      </c>
+      <c r="F69">
+        <v>0.3418104741009566</v>
+      </c>
+      <c r="G69">
+        <v>0.929894790107088</v>
+      </c>
+      <c r="H69">
+        <v>0.9640350403289188</v>
+      </c>
+      <c r="I69">
+        <v>0.9884558177014252</v>
+      </c>
+      <c r="J69">
+        <v>0.9895260754528671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1470</v>
+      </c>
+      <c r="C70">
+        <v>0.8685447565924761</v>
+      </c>
+      <c r="D70">
+        <v>0.6540053260641108</v>
+      </c>
+      <c r="E70">
+        <v>0.3574142750842489</v>
+      </c>
+      <c r="F70">
+        <v>0.3225993683716595</v>
+      </c>
+      <c r="G70">
+        <v>0.9362702392545461</v>
+      </c>
+      <c r="H70">
+        <v>0.9639021899844844</v>
+      </c>
+      <c r="I70">
+        <v>0.98735247693127</v>
+      </c>
+      <c r="J70">
+        <v>0.9901888469062291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1490</v>
+      </c>
+      <c r="C71">
+        <v>0.8193951845936933</v>
+      </c>
+      <c r="D71">
+        <v>0.6371445970837863</v>
+      </c>
+      <c r="E71">
+        <v>0.3588782995973189</v>
+      </c>
+      <c r="F71">
+        <v>0.311767976301232</v>
+      </c>
+      <c r="G71">
+        <v>0.9391567335188198</v>
+      </c>
+      <c r="H71">
+        <v>0.9651515195909862</v>
+      </c>
+      <c r="I71">
+        <v>0.9875007138508508</v>
+      </c>
+      <c r="J71">
+        <v>0.9910024361738484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1510</v>
+      </c>
+      <c r="C72">
+        <v>0.8224426654738768</v>
+      </c>
+      <c r="D72">
+        <v>0.685929698112277</v>
+      </c>
+      <c r="E72">
+        <v>0.384835288390082</v>
+      </c>
+      <c r="F72">
+        <v>0.3057884670460508</v>
+      </c>
+      <c r="G72">
+        <v>0.9413140262347328</v>
+      </c>
+      <c r="H72">
+        <v>0.9587595183951754</v>
+      </c>
+      <c r="I72">
+        <v>0.9859747341271581</v>
+      </c>
+      <c r="J72">
+        <v>0.9908736262575205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1530</v>
+      </c>
+      <c r="C73">
+        <v>0.9024735521357383</v>
+      </c>
+      <c r="D73">
+        <v>0.6627478776235651</v>
+      </c>
+      <c r="E73">
+        <v>0.356295011374145</v>
+      </c>
+      <c r="F73">
+        <v>0.3138247155967641</v>
+      </c>
+      <c r="G73">
+        <v>0.9312031675691607</v>
+      </c>
+      <c r="H73">
+        <v>0.9606457102370769</v>
+      </c>
+      <c r="I73">
+        <v>0.9877450380735844</v>
+      </c>
+      <c r="J73">
+        <v>0.9911363827934403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1550</v>
+      </c>
+      <c r="C74">
+        <v>0.8430494339615594</v>
+      </c>
+      <c r="D74">
+        <v>0.6472180204848255</v>
+      </c>
+      <c r="E74">
+        <v>0.3990112733970977</v>
+      </c>
+      <c r="F74">
+        <v>0.342413026173348</v>
+      </c>
+      <c r="G74">
+        <v>0.9389636490339417</v>
+      </c>
+      <c r="H74">
+        <v>0.9631668077379171</v>
+      </c>
+      <c r="I74">
+        <v>0.9850800726023495</v>
+      </c>
+      <c r="J74">
+        <v>0.9888591202944363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1570</v>
+      </c>
+      <c r="C75">
+        <v>0.8406620369385328</v>
+      </c>
+      <c r="D75">
+        <v>0.6962949060687134</v>
+      </c>
+      <c r="E75">
+        <v>0.3729613991495778</v>
+      </c>
+      <c r="F75">
+        <v>0.3982816846859866</v>
+      </c>
+      <c r="G75">
+        <v>0.9444025540890115</v>
+      </c>
+      <c r="H75">
+        <v>0.9616476703717576</v>
+      </c>
+      <c r="I75">
+        <v>0.986820531555669</v>
+      </c>
+      <c r="J75">
+        <v>0.9862458552632711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1590</v>
+      </c>
+      <c r="C76">
+        <v>0.9066678882181456</v>
+      </c>
+      <c r="D76">
+        <v>0.726913792952824</v>
+      </c>
+      <c r="E76">
+        <v>0.4296681295025124</v>
+      </c>
+      <c r="F76">
+        <v>0.4032396961337291</v>
+      </c>
+      <c r="G76">
+        <v>0.9347742205241408</v>
+      </c>
+      <c r="H76">
+        <v>0.9583077969313653</v>
+      </c>
+      <c r="I76">
+        <v>0.984006788783969</v>
+      </c>
+      <c r="J76">
+        <v>0.9857009593612526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1610</v>
+      </c>
+      <c r="C77">
+        <v>0.8672957950956979</v>
+      </c>
+      <c r="D77">
+        <v>0.7228858167856183</v>
+      </c>
+      <c r="E77">
+        <v>0.4584044649544737</v>
+      </c>
+      <c r="F77">
+        <v>0.3632279733166247</v>
+      </c>
+      <c r="G77">
+        <v>0.9411594559068528</v>
+      </c>
+      <c r="H77">
+        <v>0.9592871991429019</v>
+      </c>
+      <c r="I77">
+        <v>0.9811489493623797</v>
+      </c>
+      <c r="J77">
+        <v>0.9884596869352071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1630</v>
+      </c>
+      <c r="C78">
+        <v>0.9244065176200422</v>
+      </c>
+      <c r="D78">
+        <v>0.6618127274554894</v>
+      </c>
+      <c r="E78">
+        <v>0.4007874037271368</v>
+      </c>
+      <c r="F78">
+        <v>0.3949119570545393</v>
+      </c>
+      <c r="G78">
+        <v>0.9325279441336093</v>
+      </c>
+      <c r="H78">
+        <v>0.9642169132783529</v>
+      </c>
+      <c r="I78">
+        <v>0.9853983108801835</v>
+      </c>
+      <c r="J78">
+        <v>0.9867155918203258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1650</v>
+      </c>
+      <c r="C79">
+        <v>0.9254549827435813</v>
+      </c>
+      <c r="D79">
+        <v>0.684605418082578</v>
+      </c>
+      <c r="E79">
+        <v>0.407141933542872</v>
+      </c>
+      <c r="F79">
+        <v>0.3784116665757636</v>
+      </c>
+      <c r="G79">
+        <v>0.9290320391512065</v>
+      </c>
+      <c r="H79">
+        <v>0.9612419962363605</v>
+      </c>
+      <c r="I79">
+        <v>0.9854516240253408</v>
+      </c>
+      <c r="J79">
+        <v>0.9864055222450172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1670</v>
+      </c>
+      <c r="C80">
+        <v>0.8546111107671802</v>
+      </c>
+      <c r="D80">
+        <v>0.6953441279896281</v>
+      </c>
+      <c r="E80">
+        <v>0.3699951815772819</v>
+      </c>
+      <c r="F80">
+        <v>0.3518613804932137</v>
+      </c>
+      <c r="G80">
+        <v>0.9373541672278272</v>
+      </c>
+      <c r="H80">
+        <v>0.9563183386871019</v>
+      </c>
+      <c r="I80">
+        <v>0.9867741010430182</v>
+      </c>
+      <c r="J80">
+        <v>0.9879208513952473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1690</v>
+      </c>
+      <c r="C81">
+        <v>0.7711541880689516</v>
+      </c>
+      <c r="D81">
+        <v>0.6514398990852569</v>
+      </c>
+      <c r="E81">
+        <v>0.3859880092971617</v>
+      </c>
+      <c r="F81">
+        <v>0.3469319291349168</v>
+      </c>
+      <c r="G81">
+        <v>0.9470386948356129</v>
+      </c>
+      <c r="H81">
+        <v>0.9600303019332228</v>
+      </c>
+      <c r="I81">
+        <v>0.9854937585720565</v>
+      </c>
+      <c r="J81">
+        <v>0.9881802181476379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1710</v>
+      </c>
+      <c r="C82">
+        <v>0.7647138281060747</v>
+      </c>
+      <c r="D82">
+        <v>0.6574480748035498</v>
+      </c>
+      <c r="E82">
+        <v>0.3894373749732746</v>
+      </c>
+      <c r="F82">
+        <v>0.3642494331240105</v>
+      </c>
+      <c r="G82">
+        <v>0.9454073195925057</v>
+      </c>
+      <c r="H82">
+        <v>0.9586383282097483</v>
+      </c>
+      <c r="I82">
+        <v>0.9851224951712872</v>
+      </c>
+      <c r="J82">
+        <v>0.986883648070547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1730</v>
+      </c>
+      <c r="C83">
+        <v>0.7699021414737082</v>
+      </c>
+      <c r="D83">
+        <v>0.6285224919670332</v>
+      </c>
+      <c r="E83">
+        <v>0.3809735195739763</v>
+      </c>
+      <c r="F83">
+        <v>0.3375578404649154</v>
+      </c>
+      <c r="G83">
+        <v>0.9430403379161729</v>
+      </c>
+      <c r="H83">
+        <v>0.961560988636097</v>
+      </c>
+      <c r="I83">
+        <v>0.9854368291733657</v>
+      </c>
+      <c r="J83">
+        <v>0.9885048828456376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1750</v>
+      </c>
+      <c r="C84">
+        <v>0.7811813495364148</v>
+      </c>
+      <c r="D84">
+        <v>0.6718275524680154</v>
+      </c>
+      <c r="E84">
+        <v>0.4044810199087558</v>
+      </c>
+      <c r="F84">
+        <v>0.3540659973369571</v>
+      </c>
+      <c r="G84">
+        <v>0.9440857724726965</v>
+      </c>
+      <c r="H84">
+        <v>0.9599789637451221</v>
+      </c>
+      <c r="I84">
+        <v>0.9844796322890648</v>
+      </c>
+      <c r="J84">
+        <v>0.9874682475858607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1770</v>
+      </c>
+      <c r="C85">
+        <v>0.8210247195614235</v>
+      </c>
+      <c r="D85">
+        <v>0.6522621661120227</v>
+      </c>
+      <c r="E85">
+        <v>0.3758734173661746</v>
+      </c>
+      <c r="F85">
+        <v>0.376316519137427</v>
+      </c>
+      <c r="G85">
+        <v>0.9407365319831346</v>
+      </c>
+      <c r="H85">
+        <v>0.9630463819215376</v>
+      </c>
+      <c r="I85">
+        <v>0.9863469879164034</v>
+      </c>
+      <c r="J85">
+        <v>0.9868597457085526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1790</v>
+      </c>
+      <c r="C86">
+        <v>0.8550215775431212</v>
+      </c>
+      <c r="D86">
+        <v>0.6603321955976008</v>
+      </c>
+      <c r="E86">
+        <v>0.385834416277951</v>
+      </c>
+      <c r="F86">
+        <v>0.3487650695122041</v>
+      </c>
+      <c r="G86">
+        <v>0.934689934961401</v>
+      </c>
+      <c r="H86">
+        <v>0.964047929745816</v>
+      </c>
+      <c r="I86">
+        <v>0.9858770367150586</v>
+      </c>
+      <c r="J86">
+        <v>0.9886339532544032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1810</v>
+      </c>
+      <c r="C87">
+        <v>0.7904147063216518</v>
+      </c>
+      <c r="D87">
+        <v>0.6599093562322955</v>
+      </c>
+      <c r="E87">
+        <v>0.4104430281597579</v>
+      </c>
+      <c r="F87">
+        <v>0.3863177610649425</v>
+      </c>
+      <c r="G87">
+        <v>0.9451252234407228</v>
+      </c>
+      <c r="H87">
+        <v>0.9643455408320658</v>
+      </c>
+      <c r="I87">
+        <v>0.9849540070825853</v>
+      </c>
+      <c r="J87">
+        <v>0.9866936367584795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1830</v>
+      </c>
+      <c r="C88">
+        <v>0.8315127511935835</v>
+      </c>
+      <c r="D88">
+        <v>0.6419940021259515</v>
+      </c>
+      <c r="E88">
+        <v>0.3957901297234245</v>
+      </c>
+      <c r="F88">
+        <v>0.3361842311257853</v>
+      </c>
+      <c r="G88">
+        <v>0.9384022831515173</v>
+      </c>
+      <c r="H88">
+        <v>0.9658930235734514</v>
+      </c>
+      <c r="I88">
+        <v>0.9856056458493876</v>
+      </c>
+      <c r="J88">
+        <v>0.9889551651873465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1850</v>
+      </c>
+      <c r="C89">
+        <v>0.8082175041414935</v>
+      </c>
+      <c r="D89">
+        <v>0.6355992364066481</v>
+      </c>
+      <c r="E89">
+        <v>0.3764177076522591</v>
+      </c>
+      <c r="F89">
+        <v>0.3814893474127531</v>
+      </c>
+      <c r="G89">
+        <v>0.9384693017154196</v>
+      </c>
+      <c r="H89">
+        <v>0.9661571173959695</v>
+      </c>
+      <c r="I89">
+        <v>0.9863839823930892</v>
+      </c>
+      <c r="J89">
+        <v>0.9861734569668344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1870</v>
+      </c>
+      <c r="C90">
+        <v>0.8157673047725993</v>
+      </c>
+      <c r="D90">
+        <v>0.6528005133304819</v>
+      </c>
+      <c r="E90">
+        <v>0.3709197415746859</v>
+      </c>
+      <c r="F90">
+        <v>0.3707801042324596</v>
+      </c>
+      <c r="G90">
+        <v>0.9414656772739584</v>
+      </c>
+      <c r="H90">
+        <v>0.9638618294088055</v>
+      </c>
+      <c r="I90">
+        <v>0.9861512927434196</v>
+      </c>
+      <c r="J90">
+        <v>0.9865169027702152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1890</v>
+      </c>
+      <c r="C91">
+        <v>0.7863054968922071</v>
+      </c>
+      <c r="D91">
+        <v>0.6457688110408791</v>
+      </c>
+      <c r="E91">
+        <v>0.3954873476097255</v>
+      </c>
+      <c r="F91">
+        <v>0.3521311627774369</v>
+      </c>
+      <c r="G91">
+        <v>0.9455865871151168</v>
+      </c>
+      <c r="H91">
+        <v>0.9636546326636921</v>
+      </c>
+      <c r="I91">
+        <v>0.9857192345665806</v>
+      </c>
+      <c r="J91">
+        <v>0.9879820795642672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1910</v>
+      </c>
+      <c r="C92">
+        <v>0.8410429351071077</v>
+      </c>
+      <c r="D92">
+        <v>0.6341216187391839</v>
+      </c>
+      <c r="E92">
+        <v>0.3899548779404522</v>
+      </c>
+      <c r="F92">
+        <v>0.3621456686859792</v>
+      </c>
+      <c r="G92">
+        <v>0.9359298763277616</v>
+      </c>
+      <c r="H92">
+        <v>0.9659853969722396</v>
+      </c>
+      <c r="I92">
+        <v>0.9855081303244477</v>
+      </c>
+      <c r="J92">
+        <v>0.9874555678662128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1930</v>
+      </c>
+      <c r="C93">
+        <v>0.7521986796835519</v>
+      </c>
+      <c r="D93">
+        <v>0.6532604335474597</v>
+      </c>
+      <c r="E93">
+        <v>0.3915137444221075</v>
+      </c>
+      <c r="F93">
+        <v>0.3622465891813502</v>
+      </c>
+      <c r="G93">
+        <v>0.9506298875075819</v>
+      </c>
+      <c r="H93">
+        <v>0.9632246222937292</v>
+      </c>
+      <c r="I93">
+        <v>0.9852895431482539</v>
+      </c>
+      <c r="J93">
+        <v>0.9878043848657463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1950</v>
+      </c>
+      <c r="C94">
+        <v>0.8570906974058573</v>
+      </c>
+      <c r="D94">
+        <v>0.6885365568695788</v>
+      </c>
+      <c r="E94">
+        <v>0.353270439286576</v>
+      </c>
+      <c r="F94">
+        <v>0.3598105032643327</v>
+      </c>
+      <c r="G94">
+        <v>0.9415432115884338</v>
+      </c>
+      <c r="H94">
+        <v>0.9621917402248625</v>
+      </c>
+      <c r="I94">
+        <v>0.9883514869943879</v>
+      </c>
+      <c r="J94">
+        <v>0.9888610532808508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1970</v>
+      </c>
+      <c r="C95">
+        <v>0.8208025248539634</v>
+      </c>
+      <c r="D95">
+        <v>0.6906926251626812</v>
+      </c>
+      <c r="E95">
+        <v>0.3874082819969104</v>
+      </c>
+      <c r="F95">
+        <v>0.3374015568341949</v>
+      </c>
+      <c r="G95">
+        <v>0.9473092383770899</v>
+      </c>
+      <c r="H95">
+        <v>0.9638197188053276</v>
+      </c>
+      <c r="I95">
+        <v>0.9865783500745169</v>
+      </c>
+      <c r="J95">
+        <v>0.9896726677225745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1990</v>
+      </c>
+      <c r="C96">
+        <v>0.811339304925966</v>
+      </c>
+      <c r="D96">
+        <v>0.6550677694017091</v>
+      </c>
+      <c r="E96">
+        <v>0.3982971958238481</v>
+      </c>
+      <c r="F96">
+        <v>0.3476471632022661</v>
+      </c>
+      <c r="G96">
+        <v>0.9479392610287881</v>
+      </c>
+      <c r="H96">
+        <v>0.965574478532256</v>
+      </c>
+      <c r="I96">
+        <v>0.9864070937014782</v>
+      </c>
+      <c r="J96">
+        <v>0.9898314837494041</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2010</v>
+      </c>
+      <c r="C97">
+        <v>0.8232822112154905</v>
+      </c>
+      <c r="D97">
+        <v>0.656786553623452</v>
+      </c>
+      <c r="E97">
+        <v>0.3853737257096443</v>
+      </c>
+      <c r="F97">
+        <v>0.3273076063394708</v>
+      </c>
+      <c r="G97">
+        <v>0.9441647774036607</v>
+      </c>
+      <c r="H97">
+        <v>0.9637777421386534</v>
+      </c>
+      <c r="I97">
+        <v>0.9861135160288839</v>
+      </c>
+      <c r="J97">
+        <v>0.9900224612480045</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>2030</v>
+      </c>
+      <c r="C98">
+        <v>0.8311785809877236</v>
+      </c>
+      <c r="D98">
+        <v>0.6552601841143889</v>
+      </c>
+      <c r="E98">
+        <v>0.3677110698167567</v>
+      </c>
+      <c r="F98">
+        <v>0.3273540642134257</v>
+      </c>
+      <c r="G98">
+        <v>0.940790613391024</v>
+      </c>
+      <c r="H98">
+        <v>0.9646234575679058</v>
+      </c>
+      <c r="I98">
+        <v>0.9862628867586304</v>
+      </c>
+      <c r="J98">
+        <v>0.9897255617112364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2050</v>
+      </c>
+      <c r="C99">
+        <v>0.7223843824584382</v>
+      </c>
+      <c r="D99">
+        <v>0.6468577223830728</v>
+      </c>
+      <c r="E99">
+        <v>0.3556271968031657</v>
+      </c>
+      <c r="F99">
+        <v>0.3224856884128932</v>
+      </c>
+      <c r="G99">
+        <v>0.9549217436473787</v>
+      </c>
+      <c r="H99">
+        <v>0.9641655616326515</v>
+      </c>
+      <c r="I99">
+        <v>0.9875411014313709</v>
+      </c>
+      <c r="J99">
+        <v>0.9895929741540629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>2070</v>
+      </c>
+      <c r="C100">
+        <v>0.7701176983328739</v>
+      </c>
+      <c r="D100">
+        <v>0.6372992831453932</v>
+      </c>
+      <c r="E100">
+        <v>0.3681760263488466</v>
+      </c>
+      <c r="F100">
+        <v>0.3600171330512612</v>
+      </c>
+      <c r="G100">
+        <v>0.9479888554775622</v>
+      </c>
+      <c r="H100">
+        <v>0.9644708326397164</v>
+      </c>
+      <c r="I100">
+        <v>0.9866057154935705</v>
+      </c>
+      <c r="J100">
+        <v>0.9877356527980865</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2090</v>
+      </c>
+      <c r="C101">
+        <v>0.7114467579187433</v>
+      </c>
+      <c r="D101">
+        <v>0.6405202656710668</v>
+      </c>
+      <c r="E101">
+        <v>0.3571772407086222</v>
+      </c>
+      <c r="F101">
+        <v>0.318079552804813</v>
+      </c>
+      <c r="G101">
+        <v>0.9537582986073938</v>
+      </c>
+      <c r="H101">
+        <v>0.9621064679536288</v>
+      </c>
+      <c r="I101">
+        <v>0.9871608756600576</v>
+      </c>
+      <c r="J101">
+        <v>0.9894570467945059</v>
       </c>
     </row>
   </sheetData>
